--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BD/20/seed3/result_data_RandomForest.xlsx
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.146100000000002</v>
+        <v>-7.125500000000003</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>5.795699999999996</v>
+        <v>5.739199999999996</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.017300000000001</v>
+        <v>5.0947</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.838900000000002</v>
+        <v>4.779300000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.8086</v>
+        <v>-7.8768</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.120200000000002</v>
+        <v>-8.139999999999997</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -737,13 +737,13 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.646499999999996</v>
+        <v>5.651299999999999</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.359999999999996</v>
+        <v>-8.471199999999989</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -777,7 +777,7 @@
         <v>-14.88</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.663499999999994</v>
+        <v>-7.547299999999998</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>6.528300000000002</v>
+        <v>7.069899999999997</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.3715</v>
+        <v>-7.2144</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.482200000000002</v>
+        <v>-7.412500000000003</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -964,7 +964,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-8.467799999999999</v>
+        <v>-8.443100000000001</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-8.054699999999995</v>
+        <v>-8.244299999999997</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>9.484200000000001</v>
+        <v>9.517699999999998</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.729999999999995</v>
+        <v>-7.802799999999996</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.129800000000002</v>
+        <v>-7.325899999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.308099999999996</v>
+        <v>-8.213999999999993</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.913</v>
+        <v>-8.0181</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.422999999999999</v>
+        <v>5.421799999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1587,13 +1587,13 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>4.570899999999997</v>
+        <v>4.582099999999998</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-7.2746</v>
+        <v>-7.164599999999994</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-7.243399999999993</v>
+        <v>-7.092299999999997</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.532100000000003</v>
+        <v>9.595400000000007</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.635900000000003</v>
+        <v>9.468800000000003</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.297200000000004</v>
+        <v>9.003600000000004</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1791,7 +1791,7 @@
         <v>-20.43</v>
       </c>
       <c r="B80" t="n">
-        <v>9.703500000000004</v>
+        <v>9.619099999999998</v>
       </c>
       <c r="C80" t="n">
         <v>-12.35</v>
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>4.897400000000003</v>
+        <v>4.735300000000004</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>6.276800000000001</v>
+        <v>6.698300000000001</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.184599999999997</v>
+        <v>5.096899999999999</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1916,7 +1916,7 @@
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-7.843699999999995</v>
+        <v>-7.799499999999992</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1933,7 +1933,7 @@
         <v>-14.65</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.415199999999994</v>
+        <v>-7.352999999999995</v>
       </c>
       <c r="E88" t="n">
         <v>17.32</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.274400000000003</v>
+        <v>-6.123699999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2069,7 +2069,7 @@
         <v>-10.59</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.553999999999999</v>
+        <v>-7.487900000000005</v>
       </c>
       <c r="E96" t="n">
         <v>16.3</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.625100000000003</v>
+        <v>-8.502800000000001</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2148,13 +2148,13 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>9.369599999999998</v>
+        <v>9.621800000000002</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-7.686199999999996</v>
+        <v>-7.496400000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,13 +2165,13 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>9.787000000000003</v>
+        <v>9.653000000000002</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.408499999999998</v>
+        <v>-7.470399999999996</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
